--- a/数值设定/【数值设定】经济.xlsx
+++ b/数值设定/【数值设定】经济.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="商品定位" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="180">
   <si>
     <t>商品定位是被抽象出来的商品基本性质，会影响商品的基本数值。如果对商品有额外的需求，可以根据实际需要微调</t>
   </si>
@@ -288,9 +288,6 @@
     <t>奢侈饮品</t>
   </si>
   <si>
-    <t>高级烈酒</t>
-  </si>
-  <si>
     <t>黄金</t>
   </si>
   <si>
@@ -318,6 +315,9 @@
     <t>泽洛</t>
   </si>
   <si>
+    <t>能源＆高级工具＆高级原材料</t>
+  </si>
+  <si>
     <t>秘银</t>
   </si>
   <si>
@@ -429,6 +429,9 @@
     <t>科学机械厂</t>
   </si>
   <si>
+    <t>魔能装备厂</t>
+  </si>
+  <si>
     <t>魔导机械厂</t>
   </si>
   <si>
@@ -516,13 +519,16 @@
     <t>劳工</t>
   </si>
   <si>
+    <t>poor</t>
+  </si>
+  <si>
     <t>农民</t>
   </si>
   <si>
     <t>店主</t>
   </si>
   <si>
-    <t>技工</t>
+    <t>middle</t>
   </si>
   <si>
     <t>机械师</t>
@@ -540,13 +546,19 @@
     <t>贵族</t>
   </si>
   <si>
+    <t>rich</t>
+  </si>
+  <si>
     <t>资本家</t>
   </si>
   <si>
-    <t>地主</t>
-  </si>
-  <si>
     <t>法士</t>
+  </si>
+  <si>
+    <t>法师</t>
+  </si>
+  <si>
+    <t>大法师</t>
   </si>
 </sst>
 </file>
@@ -554,10 +566,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -605,6 +617,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -614,21 +641,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -649,15 +661,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -675,6 +679,13 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -712,18 +723,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -742,8 +745,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -770,97 +782,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -872,85 +956,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1017,25 +1029,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1055,41 +1058,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1105,6 +1093,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1113,6 +1110,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1121,10 +1133,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1133,31 +1145,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1172,98 +1184,98 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1291,18 +1303,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1314,9 +1314,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1639,33 +1636,33 @@
   <sheetPr/>
   <dimension ref="A1:E96"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="18" style="11" customWidth="1"/>
-    <col min="2" max="2" width="21.6666666666667" style="11" customWidth="1"/>
-    <col min="3" max="3" width="15.55" style="12" customWidth="1"/>
-    <col min="4" max="4" width="21.6666666666667" style="12" customWidth="1"/>
-    <col min="5" max="5" width="19.4333333333333" style="12" customWidth="1"/>
-    <col min="6" max="6" width="18.6083333333333" style="12" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="12"/>
+    <col min="1" max="1" width="18" style="4" customWidth="1"/>
+    <col min="2" max="2" width="21.6637168141593" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.5486725663717" style="5" customWidth="1"/>
+    <col min="4" max="4" width="21.6637168141593" style="5" customWidth="1"/>
+    <col min="5" max="5" width="19.4336283185841" style="5" customWidth="1"/>
+    <col min="6" max="6" width="18.6106194690265" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:1">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:1">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1687,138 +1684,119 @@
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:5">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:5">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-    </row>
-    <row r="7" customHeight="1" spans="1:2">
-      <c r="A7" s="13" t="s">
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:1">
+      <c r="A7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="10"/>
-    </row>
-    <row r="8" customHeight="1" spans="1:2">
-      <c r="A8" s="13" t="s">
+    </row>
+    <row r="8" customHeight="1" spans="1:1">
+      <c r="A8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="10"/>
-    </row>
-    <row r="9" customHeight="1" spans="1:2">
-      <c r="A9" s="17" t="s">
+    </row>
+    <row r="9" customHeight="1" spans="1:1">
+      <c r="A9" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="4"/>
-    </row>
-    <row r="10" customHeight="1" spans="1:2">
-      <c r="A10" s="17" t="s">
+    </row>
+    <row r="10" customHeight="1" spans="1:1">
+      <c r="A10" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="4"/>
-    </row>
-    <row r="11" customHeight="1" spans="1:2">
-      <c r="A11" s="17" t="s">
+    </row>
+    <row r="11" customHeight="1" spans="1:1">
+      <c r="A11" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="4"/>
-    </row>
-    <row r="12" customHeight="1" spans="1:2">
-      <c r="A12" s="17" t="s">
+    </row>
+    <row r="12" customHeight="1" spans="1:1">
+      <c r="A12" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="4"/>
-    </row>
-    <row r="13" customHeight="1" spans="1:2">
-      <c r="A13" s="17" t="s">
+    </row>
+    <row r="13" customHeight="1" spans="1:1">
+      <c r="A13" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="4"/>
-    </row>
-    <row r="14" customHeight="1" spans="1:2">
-      <c r="A14" s="17" t="s">
+    </row>
+    <row r="14" customHeight="1" spans="1:1">
+      <c r="A14" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="4"/>
-    </row>
-    <row r="15" customHeight="1" spans="1:2">
-      <c r="A15" s="13" t="s">
+    </row>
+    <row r="15" customHeight="1" spans="1:1">
+      <c r="A15" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="4"/>
-    </row>
-    <row r="16" customHeight="1" spans="1:2">
-      <c r="A16" s="17" t="s">
+    </row>
+    <row r="16" customHeight="1" spans="1:1">
+      <c r="A16" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="4"/>
-    </row>
-    <row r="17" customHeight="1" spans="1:2">
-      <c r="A17" s="13" t="s">
+    </row>
+    <row r="17" customHeight="1" spans="1:1">
+      <c r="A17" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="4"/>
-    </row>
-    <row r="18" customHeight="1" spans="1:2">
-      <c r="A18" s="17" t="s">
+    </row>
+    <row r="18" customHeight="1" spans="1:1">
+      <c r="A18" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="4"/>
-    </row>
-    <row r="19" customHeight="1" spans="1:2">
-      <c r="A19" s="17" t="s">
+    </row>
+    <row r="19" customHeight="1" spans="1:1">
+      <c r="A19" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="4"/>
-    </row>
-    <row r="20" customHeight="1" spans="1:2">
-      <c r="A20" s="17" t="s">
+    </row>
+    <row r="20" customHeight="1" spans="1:1">
+      <c r="A20" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="4"/>
-    </row>
-    <row r="21" customHeight="1" spans="1:2">
-      <c r="A21" s="13" t="s">
+    </row>
+    <row r="21" customHeight="1" spans="1:1">
+      <c r="A21" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="4"/>
-    </row>
-    <row r="22" customHeight="1" spans="1:2">
-      <c r="A22" s="17" t="s">
+    </row>
+    <row r="22" customHeight="1" spans="1:1">
+      <c r="A22" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="4"/>
-    </row>
-    <row r="23" customHeight="1" spans="1:2">
-      <c r="A23" s="17"/>
-      <c r="B23" s="4"/>
-    </row>
-    <row r="24" customHeight="1" spans="1:2">
-      <c r="A24" s="17"/>
-      <c r="B24" s="4"/>
-    </row>
-    <row r="25" customHeight="1" spans="1:2">
-      <c r="A25" s="17"/>
-      <c r="B25" s="4"/>
+    </row>
+    <row r="23" customHeight="1" spans="1:1">
+      <c r="A23" s="9"/>
+    </row>
+    <row r="24" customHeight="1" spans="1:1">
+      <c r="A24" s="9"/>
+    </row>
+    <row r="25" customHeight="1" spans="1:1">
+      <c r="A25" s="9"/>
     </row>
     <row r="26" customHeight="1" spans="1:5">
       <c r="A26" s="6" t="s">
@@ -1837,315 +1815,293 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" customHeight="1" spans="1:2">
-      <c r="A27" s="10" t="s">
+    <row r="27" customHeight="1" spans="1:5">
+      <c r="A27" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="4"/>
-    </row>
-    <row r="28" customHeight="1" spans="1:2">
+      <c r="E27" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="1:5">
       <c r="A28" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="4"/>
-    </row>
-    <row r="29" customHeight="1" spans="1:2">
+      <c r="E28" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="1:5">
       <c r="A29" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="4"/>
-    </row>
-    <row r="30" customHeight="1" spans="1:2">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-    </row>
-    <row r="31" customHeight="1" spans="1:2">
-      <c r="A31" s="10" t="s">
+      <c r="E29" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="1:1">
+      <c r="A31" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="10"/>
-    </row>
-    <row r="32" customHeight="1" spans="1:2">
-      <c r="A32" s="10" t="s">
+    </row>
+    <row r="32" customHeight="1" spans="1:1">
+      <c r="A32" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="10"/>
-    </row>
-    <row r="33" customHeight="1" spans="1:2">
-      <c r="A33" s="10" t="s">
+    </row>
+    <row r="33" customHeight="1" spans="1:1">
+      <c r="A33" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="10"/>
-    </row>
-    <row r="35" customHeight="1" spans="1:2">
-      <c r="A35" s="10" t="s">
+    </row>
+    <row r="35" customHeight="1" spans="1:1">
+      <c r="A35" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="10"/>
-    </row>
-    <row r="36" customHeight="1" spans="1:2">
-      <c r="A36" s="10" t="s">
+    </row>
+    <row r="36" customHeight="1" spans="1:1">
+      <c r="A36" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="10"/>
-    </row>
-    <row r="37" customHeight="1" spans="1:2">
-      <c r="A37" s="10" t="s">
+    </row>
+    <row r="37" customHeight="1" spans="1:1">
+      <c r="A37" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="10"/>
-    </row>
-    <row r="39" customHeight="1" spans="1:2">
+    </row>
+    <row r="39" customHeight="1" spans="1:1">
       <c r="A39" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="4"/>
-    </row>
-    <row r="40" customHeight="1" spans="1:2">
+    </row>
+    <row r="40" customHeight="1" spans="1:1">
       <c r="A40" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="4"/>
-    </row>
-    <row r="41" customHeight="1" spans="1:2">
+    </row>
+    <row r="41" customHeight="1" spans="1:1">
       <c r="A41" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="4"/>
-    </row>
-    <row r="42" customHeight="1" spans="1:2">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-    </row>
-    <row r="43" customHeight="1" spans="1:2">
-      <c r="A43" s="10" t="s">
+    </row>
+    <row r="43" customHeight="1" spans="1:1">
+      <c r="A43" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="10"/>
-    </row>
-    <row r="44" customHeight="1" spans="1:2">
-      <c r="A44" s="10" t="s">
+    </row>
+    <row r="44" customHeight="1" spans="1:1">
+      <c r="A44" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="10"/>
-    </row>
-    <row r="45" customHeight="1" spans="1:2">
-      <c r="A45" s="10" t="s">
+    </row>
+    <row r="45" customHeight="1" spans="1:1">
+      <c r="A45" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="10"/>
-    </row>
-    <row r="46" customHeight="1" spans="1:2">
-      <c r="A46" s="10"/>
-      <c r="B46" s="10"/>
-    </row>
-    <row r="47" customHeight="1" spans="1:2">
-      <c r="A47" s="10" t="s">
+    </row>
+    <row r="47" customHeight="1" spans="1:1">
+      <c r="A47" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B47" s="10"/>
-    </row>
-    <row r="48" customHeight="1" spans="1:2">
-      <c r="A48" s="10" t="s">
+    </row>
+    <row r="48" customHeight="1" spans="1:1">
+      <c r="A48" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B48" s="10"/>
-    </row>
-    <row r="49" customHeight="1" spans="1:2">
-      <c r="A49" s="10" t="s">
+    </row>
+    <row r="49" customHeight="1" spans="1:1">
+      <c r="A49" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B49" s="10"/>
     </row>
     <row r="50" customHeight="1" spans="1:2">
-      <c r="A50" s="12"/>
-      <c r="B50" s="12"/>
-    </row>
-    <row r="51" customHeight="1" spans="1:2">
-      <c r="A51" s="10" t="s">
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
+    </row>
+    <row r="51" customHeight="1" spans="1:1">
+      <c r="A51" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B51" s="10"/>
     </row>
     <row r="52" customHeight="1" spans="1:2">
-      <c r="A52" s="12"/>
-      <c r="B52" s="12"/>
+      <c r="A52" s="5"/>
+      <c r="B52" s="5"/>
     </row>
     <row r="53" customHeight="1" spans="1:2">
-      <c r="A53" s="12"/>
-      <c r="B53" s="12"/>
+      <c r="A53" s="5"/>
+      <c r="B53" s="5"/>
     </row>
     <row r="54" customHeight="1" spans="1:2">
-      <c r="A54" s="12"/>
-      <c r="B54" s="12"/>
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
     </row>
     <row r="55" customHeight="1" spans="1:2">
-      <c r="A55" s="12"/>
-      <c r="B55" s="12"/>
+      <c r="A55" s="5"/>
+      <c r="B55" s="5"/>
     </row>
     <row r="56" customHeight="1" spans="1:2">
-      <c r="A56" s="12"/>
-      <c r="B56" s="12"/>
+      <c r="A56" s="5"/>
+      <c r="B56" s="5"/>
     </row>
     <row r="57" customHeight="1" spans="1:2">
-      <c r="A57" s="12"/>
-      <c r="B57" s="12"/>
+      <c r="A57" s="5"/>
+      <c r="B57" s="5"/>
     </row>
     <row r="58" customHeight="1" spans="1:2">
-      <c r="A58" s="12"/>
-      <c r="B58" s="12"/>
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
     </row>
     <row r="59" customHeight="1" spans="1:2">
-      <c r="A59" s="12"/>
-      <c r="B59" s="12"/>
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
     </row>
     <row r="60" customHeight="1" spans="1:2">
-      <c r="A60" s="12"/>
-      <c r="B60" s="12"/>
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
     </row>
     <row r="61" customHeight="1" spans="1:2">
-      <c r="A61" s="12"/>
-      <c r="B61" s="12"/>
+      <c r="A61" s="5"/>
+      <c r="B61" s="5"/>
     </row>
     <row r="62" customHeight="1" spans="1:2">
-      <c r="A62" s="12"/>
-      <c r="B62" s="12"/>
+      <c r="A62" s="5"/>
+      <c r="B62" s="5"/>
     </row>
     <row r="63" customHeight="1" spans="1:2">
-      <c r="A63" s="12"/>
-      <c r="B63" s="12"/>
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
     </row>
     <row r="64" customHeight="1" spans="1:2">
-      <c r="A64" s="12"/>
-      <c r="B64" s="12"/>
+      <c r="A64" s="5"/>
+      <c r="B64" s="5"/>
     </row>
     <row r="65" customHeight="1" spans="1:2">
-      <c r="A65" s="12"/>
-      <c r="B65" s="12"/>
+      <c r="A65" s="5"/>
+      <c r="B65" s="5"/>
     </row>
     <row r="66" customHeight="1" spans="1:2">
-      <c r="A66" s="12"/>
-      <c r="B66" s="12"/>
+      <c r="A66" s="5"/>
+      <c r="B66" s="5"/>
     </row>
     <row r="67" customHeight="1" spans="1:2">
-      <c r="A67" s="12"/>
-      <c r="B67" s="12"/>
+      <c r="A67" s="5"/>
+      <c r="B67" s="5"/>
     </row>
     <row r="68" customHeight="1" spans="1:2">
-      <c r="A68" s="12"/>
-      <c r="B68" s="12"/>
+      <c r="A68" s="5"/>
+      <c r="B68" s="5"/>
     </row>
     <row r="69" customHeight="1" spans="1:2">
-      <c r="A69" s="12"/>
-      <c r="B69" s="12"/>
+      <c r="A69" s="5"/>
+      <c r="B69" s="5"/>
     </row>
     <row r="70" customHeight="1" spans="1:2">
-      <c r="A70" s="12"/>
-      <c r="B70" s="12"/>
+      <c r="A70" s="5"/>
+      <c r="B70" s="5"/>
     </row>
     <row r="71" customHeight="1" spans="1:2">
-      <c r="A71" s="12"/>
-      <c r="B71" s="12"/>
+      <c r="A71" s="5"/>
+      <c r="B71" s="5"/>
     </row>
     <row r="72" customHeight="1" spans="1:2">
-      <c r="A72" s="12"/>
-      <c r="B72" s="12"/>
+      <c r="A72" s="5"/>
+      <c r="B72" s="5"/>
     </row>
     <row r="73" customHeight="1" spans="1:2">
-      <c r="A73" s="12"/>
-      <c r="B73" s="12"/>
+      <c r="A73" s="5"/>
+      <c r="B73" s="5"/>
     </row>
     <row r="74" customHeight="1" spans="1:2">
-      <c r="A74" s="12"/>
-      <c r="B74" s="12"/>
+      <c r="A74" s="5"/>
+      <c r="B74" s="5"/>
     </row>
     <row r="75" customHeight="1" spans="1:2">
-      <c r="A75" s="12"/>
-      <c r="B75" s="12"/>
+      <c r="A75" s="5"/>
+      <c r="B75" s="5"/>
     </row>
     <row r="76" customHeight="1" spans="1:2">
-      <c r="A76" s="12"/>
-      <c r="B76" s="12"/>
+      <c r="A76" s="5"/>
+      <c r="B76" s="5"/>
     </row>
     <row r="77" customHeight="1" spans="1:2">
-      <c r="A77" s="12"/>
-      <c r="B77" s="12"/>
+      <c r="A77" s="5"/>
+      <c r="B77" s="5"/>
     </row>
     <row r="78" customHeight="1" spans="1:2">
-      <c r="A78" s="12"/>
-      <c r="B78" s="12"/>
+      <c r="A78" s="5"/>
+      <c r="B78" s="5"/>
     </row>
     <row r="79" customHeight="1" spans="1:2">
-      <c r="A79" s="12"/>
-      <c r="B79" s="12"/>
+      <c r="A79" s="5"/>
+      <c r="B79" s="5"/>
     </row>
     <row r="80" customHeight="1" spans="1:2">
-      <c r="A80" s="12"/>
-      <c r="B80" s="12"/>
+      <c r="A80" s="5"/>
+      <c r="B80" s="5"/>
     </row>
     <row r="81" customHeight="1" spans="1:2">
-      <c r="A81" s="12"/>
-      <c r="B81" s="12"/>
+      <c r="A81" s="5"/>
+      <c r="B81" s="5"/>
     </row>
     <row r="82" customHeight="1" spans="1:2">
-      <c r="A82" s="12"/>
-      <c r="B82" s="12"/>
+      <c r="A82" s="5"/>
+      <c r="B82" s="5"/>
     </row>
     <row r="83" customHeight="1" spans="1:2">
-      <c r="A83" s="12"/>
-      <c r="B83" s="12"/>
+      <c r="A83" s="5"/>
+      <c r="B83" s="5"/>
     </row>
     <row r="84" customHeight="1" spans="1:2">
-      <c r="A84" s="12"/>
-      <c r="B84" s="12"/>
+      <c r="A84" s="5"/>
+      <c r="B84" s="5"/>
     </row>
     <row r="85" customHeight="1" spans="1:2">
-      <c r="A85" s="12"/>
-      <c r="B85" s="12"/>
+      <c r="A85" s="5"/>
+      <c r="B85" s="5"/>
     </row>
     <row r="86" customHeight="1" spans="1:2">
-      <c r="A86" s="12"/>
-      <c r="B86" s="12"/>
+      <c r="A86" s="5"/>
+      <c r="B86" s="5"/>
     </row>
     <row r="87" customHeight="1" spans="1:2">
-      <c r="A87" s="12"/>
-      <c r="B87" s="12"/>
+      <c r="A87" s="5"/>
+      <c r="B87" s="5"/>
     </row>
     <row r="88" customHeight="1" spans="1:2">
-      <c r="A88" s="12"/>
-      <c r="B88" s="12"/>
+      <c r="A88" s="5"/>
+      <c r="B88" s="5"/>
     </row>
     <row r="89" customHeight="1" spans="1:2">
-      <c r="A89" s="12"/>
-      <c r="B89" s="12"/>
+      <c r="A89" s="5"/>
+      <c r="B89" s="5"/>
     </row>
     <row r="90" customHeight="1" spans="1:2">
-      <c r="A90" s="12"/>
-      <c r="B90" s="12"/>
+      <c r="A90" s="5"/>
+      <c r="B90" s="5"/>
     </row>
     <row r="91" customHeight="1" spans="1:2">
-      <c r="A91" s="12"/>
-      <c r="B91" s="12"/>
+      <c r="A91" s="5"/>
+      <c r="B91" s="5"/>
     </row>
     <row r="92" customHeight="1" spans="1:2">
-      <c r="A92" s="12"/>
-      <c r="B92" s="12"/>
+      <c r="A92" s="5"/>
+      <c r="B92" s="5"/>
     </row>
     <row r="93" customHeight="1" spans="1:2">
-      <c r="A93" s="12"/>
-      <c r="B93" s="12"/>
+      <c r="A93" s="5"/>
+      <c r="B93" s="5"/>
     </row>
     <row r="94" customHeight="1" spans="1:2">
-      <c r="A94" s="12"/>
-      <c r="B94" s="12"/>
+      <c r="A94" s="5"/>
+      <c r="B94" s="5"/>
     </row>
     <row r="95" customHeight="1" spans="1:2">
-      <c r="A95" s="12"/>
-      <c r="B95" s="12"/>
+      <c r="A95" s="5"/>
+      <c r="B95" s="5"/>
     </row>
     <row r="96" customHeight="1" spans="1:2">
-      <c r="A96" s="12"/>
-      <c r="B96" s="12"/>
+      <c r="A96" s="5"/>
+      <c r="B96" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2159,25 +2115,25 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:F75"/>
+  <dimension ref="A3:F69"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E70" sqref="E70"/>
+      <selection pane="bottomLeft" activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="17.3583333333333" style="4" customWidth="1"/>
-    <col min="2" max="2" width="13.3333333333333" style="4" customWidth="1"/>
-    <col min="3" max="3" width="28.5" style="4" customWidth="1"/>
-    <col min="4" max="4" width="58.6083333333333" style="4" customWidth="1"/>
-    <col min="5" max="5" width="61.2416666666667" style="5" customWidth="1"/>
-    <col min="6" max="6" width="13.875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="14.025" style="5" customWidth="1"/>
-    <col min="8" max="8" width="14.5833333333333" style="5" customWidth="1"/>
-    <col min="9" max="9" width="14.7166666666667" style="5" customWidth="1"/>
+    <col min="1" max="1" width="17.353982300885" style="4" customWidth="1"/>
+    <col min="2" max="2" width="13.3362831858407" style="4" customWidth="1"/>
+    <col min="3" max="3" width="28.5044247787611" style="4" customWidth="1"/>
+    <col min="4" max="4" width="58.6106194690265" style="4" customWidth="1"/>
+    <col min="5" max="5" width="61.2389380530973" style="5" customWidth="1"/>
+    <col min="6" max="6" width="13.8761061946903" style="5" customWidth="1"/>
+    <col min="7" max="7" width="14.0265486725664" style="5" customWidth="1"/>
+    <col min="8" max="8" width="14.5840707964602" style="5" customWidth="1"/>
+    <col min="9" max="9" width="14.716814159292" style="5" customWidth="1"/>
     <col min="10" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
@@ -2194,96 +2150,86 @@
       <c r="D3" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:4">
-      <c r="A4" s="10" t="s">
+    <row r="4" customHeight="1" spans="1:3">
+      <c r="A4" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="10"/>
-    </row>
-    <row r="5" customHeight="1" spans="1:4">
-      <c r="A5" s="10" t="s">
+    </row>
+    <row r="5" customHeight="1" spans="1:3">
+      <c r="A5" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="10"/>
-    </row>
-    <row r="6" customHeight="1" spans="1:4">
-      <c r="A6" s="10" t="s">
+    </row>
+    <row r="6" customHeight="1" spans="1:3">
+      <c r="A6" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="10"/>
     </row>
     <row r="7" customHeight="1" spans="1:3">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:4">
-      <c r="A8" s="10" t="s">
+    <row r="8" customHeight="1" spans="1:3">
+      <c r="A8" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="10"/>
-    </row>
-    <row r="9" customHeight="1" spans="1:4">
-      <c r="A9" s="10" t="s">
+    </row>
+    <row r="9" customHeight="1" spans="1:3">
+      <c r="A9" s="4" t="s">
         <v>58</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="10"/>
-    </row>
-    <row r="10" customHeight="1" spans="1:4">
-      <c r="A10" s="10" t="s">
+    </row>
+    <row r="10" customHeight="1" spans="1:3">
+      <c r="A10" s="4" t="s">
         <v>59</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="10"/>
     </row>
     <row r="12" customHeight="1" spans="1:6">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="4" t="s">
         <v>60</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="10"/>
+      <c r="F12" s="4"/>
     </row>
     <row r="13" customHeight="1" spans="1:6">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="4" t="s">
         <v>61</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="10"/>
+      <c r="F13" s="4"/>
     </row>
     <row r="14" customHeight="1" spans="1:3">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="4" t="s">
         <v>62</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -2291,7 +2237,7 @@
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:3">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -2299,7 +2245,7 @@
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:3">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="4" t="s">
         <v>64</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -2307,10 +2253,10 @@
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:3">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="4" t="s">
         <v>66</v>
       </c>
       <c r="C18" s="4" t="s">
@@ -2318,103 +2264,87 @@
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:3">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="4" t="s">
         <v>67</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" customHeight="1" spans="1:1">
-      <c r="A20" s="10"/>
-    </row>
-    <row r="21" customHeight="1" spans="1:4">
-      <c r="A21" s="10" t="s">
+    <row r="21" customHeight="1" spans="1:3">
+      <c r="A21" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D21" s="10"/>
-    </row>
-    <row r="22" customHeight="1" spans="1:4">
-      <c r="A22" s="10" t="s">
+    </row>
+    <row r="22" customHeight="1" spans="1:3">
+      <c r="A22" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="10"/>
-    </row>
-    <row r="23" customHeight="1" spans="1:4">
-      <c r="A23" s="10" t="s">
+    </row>
+    <row r="23" customHeight="1" spans="1:3">
+      <c r="A23" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="10"/>
-    </row>
-    <row r="24" customHeight="1" spans="1:4">
-      <c r="A24" s="10" t="s">
+    </row>
+    <row r="24" customHeight="1" spans="1:3">
+      <c r="A24" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="10"/>
-    </row>
-    <row r="25" customHeight="1" spans="4:4">
-      <c r="D25" s="10"/>
     </row>
     <row r="26" customHeight="1" spans="1:3">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="27" customHeight="1" spans="1:4">
-      <c r="A27" s="10" t="s">
+    <row r="27" customHeight="1" spans="1:3">
+      <c r="A27" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="10"/>
-    </row>
-    <row r="28" customHeight="1" spans="1:4">
-      <c r="A28" s="10" t="s">
+    </row>
+    <row r="28" customHeight="1" spans="1:3">
+      <c r="A28" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="10"/>
     </row>
     <row r="29" customHeight="1" spans="1:3">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="4" t="s">
         <v>76</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="31" customHeight="1" spans="1:4">
-      <c r="A31" s="10" t="s">
+    <row r="31" customHeight="1" spans="1:3">
+      <c r="A31" s="4" t="s">
         <v>77</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="10"/>
     </row>
     <row r="32" customHeight="1" spans="1:3">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="4" t="s">
         <v>78</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -2422,7 +2352,7 @@
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:3">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="4" t="s">
         <v>80</v>
       </c>
       <c r="B33" s="4" t="s">
@@ -2433,7 +2363,7 @@
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:3">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="4" t="s">
         <v>82</v>
       </c>
       <c r="C34" s="4" t="s">
@@ -2441,33 +2371,31 @@
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:3">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="4" t="s">
         <v>83</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="36" customHeight="1" spans="1:4">
-      <c r="A36" s="10" t="s">
+    <row r="36" customHeight="1" spans="1:3">
+      <c r="A36" s="4" t="s">
         <v>84</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D36" s="10"/>
-    </row>
-    <row r="37" customHeight="1" spans="1:4">
-      <c r="A37" s="10" t="s">
+    </row>
+    <row r="37" customHeight="1" spans="1:3">
+      <c r="A37" s="4" t="s">
         <v>85</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D37" s="10"/>
-    </row>
-    <row r="38" customHeight="1" spans="1:4">
-      <c r="A38" s="10" t="s">
+    </row>
+    <row r="38" customHeight="1" spans="1:3">
+      <c r="A38" s="4" t="s">
         <v>86</v>
       </c>
       <c r="B38" s="4" t="s">
@@ -2476,277 +2404,218 @@
       <c r="C38" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D38" s="10"/>
-    </row>
-    <row r="39" customHeight="1" spans="1:4">
-      <c r="A39" s="10" t="s">
+    </row>
+    <row r="39" customHeight="1" spans="1:3">
+      <c r="A39" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="B39" s="4"/>
       <c r="C39" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D39" s="10"/>
-    </row>
-    <row r="40" customHeight="1" spans="1:4">
-      <c r="A40" s="10" t="s">
+    </row>
+    <row r="40" customHeight="1" spans="1:3">
+      <c r="A40" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="1:3">
+      <c r="A41" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10" t="s">
+      <c r="C41" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D40" s="10"/>
-    </row>
-    <row r="41" customHeight="1" spans="1:4">
-      <c r="A41" s="10" t="s">
+    </row>
+    <row r="43" customHeight="1" spans="1:3">
+      <c r="A43" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10" t="s">
+      <c r="C43" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="1:3">
+      <c r="A44" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="1:3">
+      <c r="A45" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="1:3">
+      <c r="A46" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="1:3">
+      <c r="A47" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="1:3">
+      <c r="A48" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="1:3">
+      <c r="A50" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="1:3">
+      <c r="A51" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="1:3">
+      <c r="A52" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="1:3">
+      <c r="A54" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="55" customHeight="1" spans="1:3">
+      <c r="A55" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="56" customHeight="1" spans="1:3">
+      <c r="A56" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="57" customHeight="1" spans="1:3">
+      <c r="A57" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="58" customHeight="1" spans="1:3">
+      <c r="A58" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="59" customHeight="1" spans="1:3">
+      <c r="A59" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="60" customHeight="1" spans="1:3">
+      <c r="A60" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="61" customHeight="1" spans="1:3">
+      <c r="A61" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="62" customHeight="1" spans="1:3">
+      <c r="A62" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="63" customHeight="1" spans="1:3">
+      <c r="A63" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="64" customHeight="1" spans="1:3">
+      <c r="A64" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D41" s="10"/>
-    </row>
-    <row r="42" customHeight="1" spans="2:4">
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-    </row>
-    <row r="43" customHeight="1" spans="1:4">
-      <c r="A43" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D43" s="10"/>
-    </row>
-    <row r="44" customHeight="1" spans="1:4">
-      <c r="A44" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D44" s="10"/>
-    </row>
-    <row r="45" customHeight="1" spans="1:4">
-      <c r="A45" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D45" s="10"/>
-    </row>
-    <row r="46" customHeight="1" spans="1:4">
-      <c r="A46" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D46" s="10"/>
-    </row>
-    <row r="47" customHeight="1" spans="1:4">
-      <c r="A47" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D47" s="10"/>
-    </row>
-    <row r="48" customHeight="1" spans="1:4">
-      <c r="A48" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D48" s="10"/>
-    </row>
-    <row r="49" customHeight="1" spans="2:2">
-      <c r="B49" s="10"/>
-    </row>
-    <row r="50" customHeight="1" spans="1:2">
-      <c r="A50" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="B50" s="10"/>
-    </row>
-    <row r="51" customHeight="1" spans="1:3">
-      <c r="A51" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-    </row>
-    <row r="52" customHeight="1" spans="1:4">
-      <c r="A52" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-    </row>
-    <row r="53" customHeight="1" spans="3:4">
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-    </row>
-    <row r="54" customHeight="1" spans="1:4">
-      <c r="A54" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="B54" s="10"/>
-      <c r="C54" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D54" s="10"/>
-    </row>
-    <row r="55" customHeight="1" spans="1:4">
-      <c r="A55" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="B55" s="10"/>
-      <c r="C55" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D55" s="10"/>
-    </row>
-    <row r="56" customHeight="1" spans="1:3">
-      <c r="A56" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="B56" s="10"/>
-      <c r="C56" s="10"/>
-    </row>
-    <row r="57" customHeight="1" spans="1:4">
-      <c r="A57" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="B57" s="10"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="10"/>
-    </row>
-    <row r="58" customHeight="1" spans="1:4">
-      <c r="A58" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
-    </row>
-    <row r="59" customHeight="1" spans="1:4">
-      <c r="A59" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="B59" s="10"/>
-      <c r="D59" s="10"/>
-    </row>
-    <row r="60" customHeight="1" spans="1:4">
-      <c r="A60" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="B60" s="10"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
-    </row>
-    <row r="61" customHeight="1" spans="1:4">
-      <c r="A61" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="B61" s="10"/>
-      <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
-    </row>
-    <row r="62" customHeight="1" spans="1:4">
-      <c r="A62" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="B62" s="10"/>
-      <c r="C62" s="10"/>
-      <c r="D62" s="10"/>
-    </row>
-    <row r="63" customHeight="1" spans="1:4">
-      <c r="A63" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="B63" s="10"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
-    </row>
-    <row r="64" customHeight="1" spans="1:3">
-      <c r="A64" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="B64" s="10"/>
-      <c r="C64" s="10"/>
-    </row>
-    <row r="65" customHeight="1" spans="1:4">
-      <c r="A65" s="10" t="s">
+    </row>
+    <row r="65" customHeight="1" spans="1:3">
+      <c r="A65" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B65" s="10"/>
-      <c r="C65" s="10" t="s">
+      <c r="C65" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D65" s="10"/>
-    </row>
-    <row r="66" customHeight="1" spans="4:4">
-      <c r="D66" s="10"/>
-    </row>
-    <row r="67" customHeight="1" spans="1:4">
-      <c r="A67" s="10" t="s">
+    </row>
+    <row r="67" customHeight="1" spans="1:3">
+      <c r="A67" s="4" t="s">
         <v>113</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="D67" s="10"/>
-    </row>
-    <row r="68" customHeight="1" spans="4:4">
-      <c r="D68" s="10"/>
     </row>
     <row r="69" customHeight="1" spans="1:5">
-      <c r="A69" s="10" t="s">
+      <c r="A69" s="4" t="s">
         <v>115</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="D69" s="10"/>
       <c r="E69" s="5" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="70" customHeight="1" spans="4:4">
-      <c r="D70" s="10"/>
-    </row>
-    <row r="71" customHeight="1" spans="3:4">
-      <c r="C71" s="10"/>
-      <c r="D71" s="10"/>
-    </row>
-    <row r="72" customHeight="1" spans="3:4">
-      <c r="C72" s="10"/>
-      <c r="D72" s="10"/>
-    </row>
-    <row r="73" customHeight="1" spans="2:4">
-      <c r="B73" s="10"/>
-      <c r="C73" s="10"/>
-      <c r="D73" s="10"/>
-    </row>
-    <row r="74" customHeight="1" spans="2:4">
-      <c r="B74" s="10"/>
-      <c r="C74" s="10"/>
-      <c r="D74" s="10"/>
-    </row>
-    <row r="75" customHeight="1" spans="2:4">
-      <c r="B75" s="10"/>
-      <c r="C75" s="10"/>
-      <c r="D75" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2757,16 +2626,16 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:E47"/>
+  <dimension ref="A2:E48"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView showGridLines="0" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="15.6916666666667" customWidth="1"/>
-    <col min="5" max="5" width="13.625" customWidth="1"/>
+    <col min="1" max="1" width="15.6902654867257" customWidth="1"/>
+    <col min="5" max="5" width="13.6283185840708" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" customHeight="1" spans="1:5">
@@ -2861,7 +2730,7 @@
         <v>75</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:4">
@@ -2878,7 +2747,7 @@
         <v>133</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D12" s="3"/>
     </row>
@@ -2887,7 +2756,7 @@
         <v>134</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D13" s="3"/>
     </row>
@@ -2896,7 +2765,7 @@
         <v>135</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D14" s="3"/>
     </row>
@@ -2905,14 +2774,18 @@
         <v>136</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" customHeight="1" spans="1:1">
+    <row r="16" customHeight="1" spans="1:4">
       <c r="A16" s="2" t="s">
         <v>137</v>
       </c>
+      <c r="C16" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" s="3"/>
     </row>
     <row r="17" customHeight="1" spans="1:1">
       <c r="A17" s="2" t="s">
@@ -2929,8 +2802,8 @@
         <v>140</v>
       </c>
     </row>
-    <row r="21" customHeight="1" spans="1:1">
-      <c r="A21" s="2" t="s">
+    <row r="20" customHeight="1" spans="1:1">
+      <c r="A20" s="2" t="s">
         <v>141</v>
       </c>
     </row>
@@ -2954,8 +2827,8 @@
         <v>145</v>
       </c>
     </row>
-    <row r="27" customHeight="1" spans="1:1">
-      <c r="A27" s="2" t="s">
+    <row r="26" customHeight="1" spans="1:1">
+      <c r="A26" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -2969,8 +2842,8 @@
         <v>148</v>
       </c>
     </row>
-    <row r="31" customHeight="1" spans="1:1">
-      <c r="A31" s="2" t="s">
+    <row r="30" customHeight="1" spans="1:1">
+      <c r="A30" s="2" t="s">
         <v>149</v>
       </c>
     </row>
@@ -2994,19 +2867,19 @@
         <v>153</v>
       </c>
     </row>
-    <row r="37" customHeight="1" spans="1:1">
-      <c r="A37" s="2" t="s">
+    <row r="36" customHeight="1" spans="1:1">
+      <c r="A36" s="2" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:1">
       <c r="A38" s="2" t="s">
-        <v>58</v>
+        <v>155</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:1">
       <c r="A39" s="2" t="s">
-        <v>155</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:1">
@@ -3016,12 +2889,12 @@
     </row>
     <row r="41" customHeight="1" spans="1:1">
       <c r="A41" s="2" t="s">
-        <v>64</v>
+        <v>157</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:1">
       <c r="A42" s="2" t="s">
-        <v>157</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:1">
@@ -3031,17 +2904,22 @@
     </row>
     <row r="44" customHeight="1" spans="1:1">
       <c r="A44" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="1:1">
+      <c r="A45" s="2" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="46" customHeight="1" spans="1:1">
-      <c r="A46" s="2" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="1:1">
       <c r="A47" s="2" t="s">
         <v>160</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="1:1">
+      <c r="A48" s="2" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -3056,85 +2934,121 @@
   <dimension ref="A2:C14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="14.75" customWidth="1"/>
-    <col min="2" max="2" width="9.625" customWidth="1"/>
-    <col min="3" max="3" width="38.25" customWidth="1"/>
-    <col min="4" max="4" width="11.75" customWidth="1"/>
+    <col min="1" max="1" width="14.7522123893805" customWidth="1"/>
+    <col min="2" max="2" width="9.6283185840708" customWidth="1"/>
+    <col min="3" max="3" width="38.2477876106195" customWidth="1"/>
+    <col min="4" max="4" width="11.7522123893805" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" customHeight="1" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:1">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:2">
       <c r="A3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:1">
+        <v>165</v>
+      </c>
+      <c r="B3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:2">
       <c r="A4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:1">
+        <v>167</v>
+      </c>
+      <c r="B4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:2">
       <c r="A5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:2">
+      <c r="A6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B6" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:1">
-      <c r="A6" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" spans="1:1">
+    <row r="7" customHeight="1" spans="1:2">
       <c r="A7" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:1">
+        <v>171</v>
+      </c>
+      <c r="B7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:2">
       <c r="A8" t="s">
+        <v>172</v>
+      </c>
+      <c r="B8" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="1:1">
+    <row r="9" customHeight="1" spans="1:2">
       <c r="A9" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="1:1">
+        <v>173</v>
+      </c>
+      <c r="B9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:2">
       <c r="A10" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="1:1">
+        <v>174</v>
+      </c>
+      <c r="B10" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:2">
       <c r="A11" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="12" customHeight="1" spans="1:1">
+        <v>176</v>
+      </c>
+      <c r="B11" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:2">
       <c r="A12" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="13" customHeight="1" spans="1:1">
+        <v>177</v>
+      </c>
+      <c r="B12" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:2">
       <c r="A13" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="14" customHeight="1" spans="1:1">
+        <v>178</v>
+      </c>
+      <c r="B13" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:2">
       <c r="A14" t="s">
+        <v>179</v>
+      </c>
+      <c r="B14" t="s">
         <v>175</v>
       </c>
     </row>
